--- a/src/main/resources/template/excel/export/StockReimburseFirstCategory.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburseFirstCategory.xlsx
@@ -86,25 +86,25 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(B3+0)]</t>
+    <t>报损查询</t>
+  </si>
+  <si>
+    <t>报损数量</t>
+  </si>
+  <si>
+    <t>报损金额</t>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(B3:B3:B3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(C3+0)]</t>
+    <t>$[SUMPRODUCT(C3:C3:C3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(D3+0)]</t>
+    <t>$[SUMPRODUCT(D3:D3:D3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>报损查询</t>
-  </si>
-  <si>
-    <t>报损数量</t>
-  </si>
-  <si>
-    <t>报损金额</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
   <dimension ref="A1:DY101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:129" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -709,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>2</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
